--- a/csv/independent.xlsx
+++ b/csv/independent.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B78"/>
+  <dimension ref="A1:B232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1280,6 +1280,1700 @@
         </is>
       </c>
     </row>
+    <row r="79">
+      <c r="A79">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/interest-rate-mortgage-sunak-hunt-economy-labour-b2463537.html")</f>
+        <v/>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Christmas crunch: 170,000 homeowners to be hit by higher mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/uk-economy-latest-gdp-growth-b2463145.html")</f>
+        <v/>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>UK economy shrank faster than expected in October, new data reveals</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <f>HYPERLINK("https://www.independent.co.uk/money/mortgage-arrears-jump-as-homeowners-and-landlords-feel-pressure-from-rate-hikes-b2444465.html")</f>
+        <v/>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Mortgage arrears jump as homeowners and landlords feel pressure from rate hikes</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <f>HYPERLINK("https://www.independent.co.uk/money/building-societies-top-which-mortgage-provider-consumer-satisfaction-survey-b2429638.html")</f>
+        <v/>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Building societies top Which? mortgage provider consumer satisfaction survey</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/rents-record-high-rightmove-b2423923.html")</f>
+        <v/>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Rents reach new record high with average home receiving 25 inquiries</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <f>HYPERLINK("https://www.independent.co.uk/money/average-uk-house-price-ps14-500-lower-in-september-than-a-year-earlier-b2422176.html")</f>
+        <v/>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Average UK house price £14,500 lower in September than a year earlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/interest-rates-bank-of-england-mortgages-b2415873.html")</f>
+        <v/>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Don’t celebrate yet – expensive borrowing is here to stay</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortages-savings-interest-rates-inflation-b2415859.html")</f>
+        <v/>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>How interest rates announcement will affect mortgages and savings</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <f>HYPERLINK("https://www.independent.co.uk/money/uk-house-prices-fell-in-august-at-fastest-annual-rate-since-2009-says-halifax-b2406946.html")</f>
+        <v/>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>UK house prices fell in August at fastest annual rate since 2009, says Halifax</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <f>HYPERLINK("https://www.independent.co.uk/money/mortgage-firsttime-buyers-housing-market-b2401846.html")</f>
+        <v/>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>‘Worst of pain may not be over’: Mortgage approvals drop nearly 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <f>HYPERLINK("https://www.independent.co.uk/money/jump-in-homeowners-and-landlords-falling-into-arrears-on-mortgages-b2390796.html")</f>
+        <v/>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>Jump in homeowners and landlords falling into arrears on mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/mortgage-interest-rates-banks-economy-b2390716.html")</f>
+        <v/>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Banks offer relief for homeowners as mortgage rates slashed</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/house-prices-uk-interest-rates-map-b2388786.html")</f>
+        <v/>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Mapped: Areas most affected as UK house prices fall for fourth month</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <f>HYPERLINK("https://www.independent.co.uk/property/mortgage-expert-tips-remortgaging-property-b2381575.html")</f>
+        <v/>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>‘I’m a mortgage expert –here are my top tips to tackle remortgaging’</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-rates-rise-relationships-trapped-b2383694.html")</f>
+        <v/>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Couples are staying together as they can’t afford to break up</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <f>HYPERLINK("https://www.independent.co.uk/money/your-money/mortgage-advice-interest-rates-latest-b2363009.html")</f>
+        <v/>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>How to cope with the mortgage crisis, by the experts</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/interest-rate-mortgage-bank-of-england-b2382771.html")</f>
+        <v/>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Treasury officials weigh 40-year mortgages to help first-time buyers</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <f>HYPERLINK("https://www.independent.co.uk/news/ap-new-york-federal-reserve-channel-inflation-b2382232.html")</f>
+        <v/>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Car buyers bear a heavy burden as Federal Reserve keeps raising rates: Auto-loan rejections are up</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <f>HYPERLINK("https://www.independent.co.uk/money/average-fixed-homeowner-mortgage-rates-edge-up-following-dip-b2379530.html")</f>
+        <v/>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Average fixed homeowner mortgage rates edge up following dip</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/inflation-rishi-sunak-election-2024-mortgages-b2377977.html")</f>
+        <v/>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>Fall in inflation is a boost for Sunak – but it leaves no wriggle room</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/editorials/uk-mortgage-crisis-rishi-sunak-conservatives-b2374022.html")</f>
+        <v/>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>The mortgage crisis will have severe political consequences</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/mortgage-interest-rates-housing-bank-b2373738.html")</f>
+        <v/>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>£500 rise in mortgage payments for 1m households by 2026, Bank warns</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-payment-calculators-interest-rates-b2363433.html")</f>
+        <v/>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>What mortgage repayment calculators are available?</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <f>HYPERLINK("https://www.independent.co.uk/money/matt-smith-rightmove-mortgages-one-banks-b2371126.html")</f>
+        <v/>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>The pros and cons of making overpayments on your mortgage</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/base-interest-rate-bank-of-england-inflation-b2370132.html")</f>
+        <v/>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>Interest rates may rise to 7% to curb inflation, economist warns</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-interest-rates-inflation-sunak-b2369076.html")</f>
+        <v/>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>Fears mortgage rate could hit 7% as experts say rises ‘out of control’</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/rishi-sunak-wealth-class-mercer-food-banks-b2369000.html")</f>
+        <v/>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Tory minister says food bank use is ‘personal decision’</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/covid-interest-rates-jeremy-hunt-b2364492.html")</f>
+        <v/>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>Thousands of businesses can’t afford crippling rates on Covid loans</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/bank-england-inflation-forecasts-mortgages-b2365826.html")</f>
+        <v/>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>Bank of England admits its forecasts ‘unworkable’ in inflation crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/mortgages-interest-rates-inflation-sunak-b2363968.html")</f>
+        <v/>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>Mortgage rates hit seven-month high as homeowners feel ‘intense pain’</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/politics-explained/mortgages-inflation-bank-england-bailey-b2363873.html")</f>
+        <v/>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>Will Bank of England governor survive Tory pressure to quit?</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-inflation-bank-england-tories-b2363834.html")</f>
+        <v/>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>Bank of England boss must go unless change of course, says senior Tory</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-interest-rates-tories-labour-poll-b2363759.html")</f>
+        <v/>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>Britons face £5,000 a year mortgage rise, as Labour extend poll lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <f>HYPERLINK("https://www.independent.co.uk/business/mortgages-interest-rates-inflation-jeremy-hunt-b2363677.html")</f>
+        <v/>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Hunt urges public to be ‘patient’ with ‘necessary’ interest rate hikes</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-interest-rates-hunt-sunak-tories-b2363200.html")</f>
+        <v/>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>Jeremy Hunt’s mortgages deal dubbed ‘sticking plaster’</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/editorials/mortgage-cisis-interest-rates-bank-inflation-b2363138.html")</f>
+        <v/>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>The government cannot sit on the sidelines of the mortgage crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <f>HYPERLINK("https://www.independent.co.uk/money/mortgage-help-jeremy-hunt-banks-b2363115.html")</f>
+        <v/>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>What do new mortgage measures mean for struggling borrowers?</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <f>HYPERLINK("https://www.independent.co.uk/money/martin-lewis-savings-rates-mortgage-crisis-b2362955.html")</f>
+        <v/>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Martin Lewis blasts banks for ‘outrageous’ delay in saving rates rises</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/inflation-interest-rates-recession-sunak-b2362389.html")</f>
+        <v/>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Interest rates blame game erupts between Tories and Bank of England</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/average-mortgage-interest-rates-renting-b2362217.html")</f>
+        <v/>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Therapy or paying the bills: How mortgage time bomb hits homeowners</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/martin-lewis-bank-england-interest-rates-b2362275.html")</f>
+        <v/>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Martin Lewis gives verdict on Bank of England interest rate hike</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120">
+        <f>HYPERLINK("https://www.independent.co.uk/money/what-does-the-bank-of-england-base-rate-hike-mean-for-homeowners-b2362333.html")</f>
+        <v/>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>What does the Bank of England base rate hike mean for homeowners?</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/interest-rates-rise-mortgage-crisis-b2362252.html")</f>
+        <v/>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Bank of England raises interest rates to 5% amid mortgage crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/interest-rates-bank-england-mortgage-inflation-b2362124.html")</f>
+        <v/>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Trigger recession to tame inflation, say economists</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/inflation-mortgage-interest-rates-rise-forecast-uk-economy-latest-b2361535.html")</f>
+        <v/>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Inflation is even worse than you think and it’s bad news for mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/inflation-interest-mortgage-rates-uk-latest-b2361394.html")</f>
+        <v/>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Fears of ‘shock-and-awe’ Bank of England hike as mortgage rates climb</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-interest-rates-tories-sunak-hunt-b2361418.html")</f>
+        <v/>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>Tories face ‘blue wall’ wipeout from mortgage time bomb</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgages-first-time-buyer-property-b2361173.html")</f>
+        <v/>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>I’m a first-time buyer – is now the right time to buy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127">
+        <f>HYPERLINK("https://www.independent.co.uk/news/bank-of-england-ap-london-united-states-office-for-national-statistics-b2361433.html")</f>
+        <v/>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>UK borrowers brace for more expensive loans as inflation fails to fall as anticipated</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/boris-johnson-rishi-sunak-mortgages-furlough-b2360960.html")</f>
+        <v/>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>Boris’s clown show is over – Sunak’s election tightrope act teeters on</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgage-interest-rates-bank-gove-sunak-b2360684.html")</f>
+        <v/>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>Gove says 25-year fixed rates could ease mortgage crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-rates-house-prices-arrears-b2360336.html")</f>
+        <v/>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>UK ‘hurtling into mortgage disaster’, experts warn</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131">
+        <f>HYPERLINK("https://www.independent.co.uk/independentpremium/voices/mortgages-repossesion-interest-rates-inflation-uk-b2360317.html")</f>
+        <v/>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>Katy’s story: how the mortgage crisis is starting to hit home</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgage-interest-rates-calculator-b2360033.html")</f>
+        <v/>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>Sunak rules out mortgage support as he urges banks to help homeowners</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/mortgage-furlough-jeremy-hunt-budget-b2358996.html")</f>
+        <v/>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>Do Britain’s struggling home owners need a mortgage furlough?</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-payment-rise-next-year-ps2-900-b2358973.html")</f>
+        <v/>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>More mortgage misery as average bills to rise £2,900 next year</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135">
+        <f>HYPERLINK("https://www.independent.co.uk/money/your-money/mortgage-turmoil-deepens-as-santander-pulls-loans-b2356044.html")</f>
+        <v/>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Mortgage woes deepen as bank pulls loans – and rates could rise again</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/brexit-uk-economy-inflation-summers-b2349634.html")</f>
+        <v/>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Brexit was ‘historic economic error’, says ex-US Treasury chief</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137">
+        <f>HYPERLINK("https://www.independent.co.uk/money/mortgage-deals-pulled-interest-rates-b2348227.html")</f>
+        <v/>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Hundreds of mortgage deals pulled from market as lenders raise rates</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/politics-explained/mortgages-interest-rates-election-rishi-sunak-b2346670.html")</f>
+        <v/>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>How rising mortgages could derail Rishi Sunak’s election plans</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/netflix-spotify-mortgage-first-time-buyers-scheme-b2335468.html")</f>
+        <v/>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>How Netflix and Spotify can help first time buyers get a mortgage</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/halifax-mortgage-refused-ukraine-refugees-b2334762.html")</f>
+        <v/>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>Bank apologises after mortgage refused over Ukrainian refugees</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/interest-rate-mortgages-bank-england-b2337141.html")</f>
+        <v/>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Mortgage pain ahead as Bank raises rate to tackle ‘stubborn’ inflation</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142">
+        <f>HYPERLINK("https://www.independent.co.uk/independentpremium/long-reads/marathon-mortgage-terms-35-40-years-first-time-buyers-b2328018.html")</f>
+        <v/>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Are we entering the age of the marathon mortgage?</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143">
+        <f>HYPERLINK("https://www.independent.co.uk/independentpremium/business/house-prices-uk-housing-nationwide-b2330997.html")</f>
+        <v/>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Pity those seeking to get on the property ladder</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144">
+        <f>HYPERLINK("https://www.independent.co.uk/news/new-zealand-ap-wellington-monetary-policy-committee-australia-b2314371.html")</f>
+        <v/>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>New Zealand's central bank hikes key interest rate to 5.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/bank-england-uk-interest-rates-my-mortgage-b2306882.html")</f>
+        <v/>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>What interest rate rise means for mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146">
+        <f>HYPERLINK("https://www.independent.co.uk/money/house-sales-dip-but-average-fixed-mortgage-rates-hit-a-sixmonth-low-b2304986.html")</f>
+        <v/>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>House sales dip but average fixed mortgage rates hit a six-month low</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-rates-calculator-house-price-rise-b2278041.html")</f>
+        <v/>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Mapped: Areas hit hardest by mortgage hikes of up to £13,000 a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/house-prices-mortgages-interest-rates-b2274278.html")</f>
+        <v/>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>How interest rate rise will affect house prices and mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/virgin-media")</f>
+        <v/>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Fibre broadband packages from only £25 at Virgin Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/vodafone")</f>
+        <v/>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Extra 15% off extra plans for existing customers at Vodafone</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/audible")</f>
+        <v/>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>50% off your 1st three months with Audible</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/ancestry")</f>
+        <v/>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>50% off selected memberships at Ancestry</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/sixt")</f>
+        <v/>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>Up to 15% off your next rental at Sixt</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/nord-vpn")</f>
+        <v/>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Christmas deal: 65% off NordVPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/national-tyres-and-autocare")</f>
+        <v/>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>50% off front or 4-wheel alignment - National Tyres and Autocare promo code</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/interest-rate-mortgage-sunak-hunt-economy-labour-b2463537.html")</f>
+        <v/>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Christmas crunch: 170,000 homeowners to be hit by higher mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/uk-economy-latest-gdp-growth-b2463145.html")</f>
+        <v/>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>UK economy shrank faster than expected in October, new data reveals</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158">
+        <f>HYPERLINK("https://www.independent.co.uk/money/mortgage-arrears-jump-as-homeowners-and-landlords-feel-pressure-from-rate-hikes-b2444465.html")</f>
+        <v/>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>Mortgage arrears jump as homeowners and landlords feel pressure from rate hikes</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159">
+        <f>HYPERLINK("https://www.independent.co.uk/money/building-societies-top-which-mortgage-provider-consumer-satisfaction-survey-b2429638.html")</f>
+        <v/>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>Building societies top Which? mortgage provider consumer satisfaction survey</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/rents-record-high-rightmove-b2423923.html")</f>
+        <v/>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Rents reach new record high with average home receiving 25 inquiries</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161">
+        <f>HYPERLINK("https://www.independent.co.uk/money/average-uk-house-price-ps14-500-lower-in-september-than-a-year-earlier-b2422176.html")</f>
+        <v/>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Average UK house price £14,500 lower in September than a year earlier</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/interest-rates-bank-of-england-mortgages-b2415873.html")</f>
+        <v/>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Don’t celebrate yet – expensive borrowing is here to stay</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortages-savings-interest-rates-inflation-b2415859.html")</f>
+        <v/>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>How interest rates announcement will affect mortgages and savings</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164">
+        <f>HYPERLINK("https://www.independent.co.uk/money/uk-house-prices-fell-in-august-at-fastest-annual-rate-since-2009-says-halifax-b2406946.html")</f>
+        <v/>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>UK house prices fell in August at fastest annual rate since 2009, says Halifax</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165">
+        <f>HYPERLINK("https://www.independent.co.uk/money/mortgage-firsttime-buyers-housing-market-b2401846.html")</f>
+        <v/>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>‘Worst of pain may not be over’: Mortgage approvals drop nearly 10%</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166">
+        <f>HYPERLINK("https://www.independent.co.uk/money/jump-in-homeowners-and-landlords-falling-into-arrears-on-mortgages-b2390796.html")</f>
+        <v/>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Jump in homeowners and landlords falling into arrears on mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/mortgage-interest-rates-banks-economy-b2390716.html")</f>
+        <v/>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Banks offer relief for homeowners as mortgage rates slashed</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/house-prices-uk-interest-rates-map-b2388786.html")</f>
+        <v/>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Mapped: Areas most affected as UK house prices fall for fourth month</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169">
+        <f>HYPERLINK("https://www.independent.co.uk/property/mortgage-expert-tips-remortgaging-property-b2381575.html")</f>
+        <v/>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>‘I’m a mortgage expert –here are my top tips to tackle remortgaging’</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-rates-rise-relationships-trapped-b2383694.html")</f>
+        <v/>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Couples are staying together as they can’t afford to break up</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171">
+        <f>HYPERLINK("https://www.independent.co.uk/money/your-money/mortgage-advice-interest-rates-latest-b2363009.html")</f>
+        <v/>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>How to cope with the mortgage crisis, by the experts</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/interest-rate-mortgage-bank-of-england-b2382771.html")</f>
+        <v/>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Treasury officials weigh 40-year mortgages to help first-time buyers</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173">
+        <f>HYPERLINK("https://www.independent.co.uk/news/ap-new-york-federal-reserve-channel-inflation-b2382232.html")</f>
+        <v/>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Car buyers bear a heavy burden as Federal Reserve keeps raising rates: Auto-loan rejections are up</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174">
+        <f>HYPERLINK("https://www.independent.co.uk/money/average-fixed-homeowner-mortgage-rates-edge-up-following-dip-b2379530.html")</f>
+        <v/>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Average fixed homeowner mortgage rates edge up following dip</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/inflation-rishi-sunak-election-2024-mortgages-b2377977.html")</f>
+        <v/>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Fall in inflation is a boost for Sunak – but it leaves no wriggle room</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/editorials/uk-mortgage-crisis-rishi-sunak-conservatives-b2374022.html")</f>
+        <v/>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>The mortgage crisis will have severe political consequences</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/mortgage-interest-rates-housing-bank-b2373738.html")</f>
+        <v/>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>£500 rise in mortgage payments for 1m households by 2026, Bank warns</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-payment-calculators-interest-rates-b2363433.html")</f>
+        <v/>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>What mortgage repayment calculators are available?</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179">
+        <f>HYPERLINK("https://www.independent.co.uk/money/matt-smith-rightmove-mortgages-one-banks-b2371126.html")</f>
+        <v/>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>The pros and cons of making overpayments on your mortgage</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/base-interest-rate-bank-of-england-inflation-b2370132.html")</f>
+        <v/>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Interest rates may rise to 7% to curb inflation, economist warns</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-interest-rates-inflation-sunak-b2369076.html")</f>
+        <v/>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>Fears mortgage rate could hit 7% as experts say rises ‘out of control’</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/rishi-sunak-wealth-class-mercer-food-banks-b2369000.html")</f>
+        <v/>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Tory minister says food bank use is ‘personal decision’</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/covid-interest-rates-jeremy-hunt-b2364492.html")</f>
+        <v/>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Thousands of businesses can’t afford crippling rates on Covid loans</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/bank-england-inflation-forecasts-mortgages-b2365826.html")</f>
+        <v/>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Bank of England admits its forecasts ‘unworkable’ in inflation crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/mortgages-interest-rates-inflation-sunak-b2363968.html")</f>
+        <v/>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Mortgage rates hit seven-month high as homeowners feel ‘intense pain’</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/politics-explained/mortgages-inflation-bank-england-bailey-b2363873.html")</f>
+        <v/>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Will Bank of England governor survive Tory pressure to quit?</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-inflation-bank-england-tories-b2363834.html")</f>
+        <v/>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Bank of England boss must go unless change of course, says senior Tory</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-interest-rates-tories-labour-poll-b2363759.html")</f>
+        <v/>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Britons face £5,000 a year mortgage rise, as Labour extend poll lead</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189">
+        <f>HYPERLINK("https://www.independent.co.uk/business/mortgages-interest-rates-inflation-jeremy-hunt-b2363677.html")</f>
+        <v/>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Hunt urges public to be ‘patient’ with ‘necessary’ interest rate hikes</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-interest-rates-hunt-sunak-tories-b2363200.html")</f>
+        <v/>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Jeremy Hunt’s mortgages deal dubbed ‘sticking plaster’</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/editorials/mortgage-cisis-interest-rates-bank-inflation-b2363138.html")</f>
+        <v/>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>The government cannot sit on the sidelines of the mortgage crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192">
+        <f>HYPERLINK("https://www.independent.co.uk/money/mortgage-help-jeremy-hunt-banks-b2363115.html")</f>
+        <v/>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>What do new mortgage measures mean for struggling borrowers?</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193">
+        <f>HYPERLINK("https://www.independent.co.uk/money/martin-lewis-savings-rates-mortgage-crisis-b2362955.html")</f>
+        <v/>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Martin Lewis blasts banks for ‘outrageous’ delay in saving rates rises</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/inflation-interest-rates-recession-sunak-b2362389.html")</f>
+        <v/>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Interest rates blame game erupts between Tories and Bank of England</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/average-mortgage-interest-rates-renting-b2362217.html")</f>
+        <v/>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Therapy or paying the bills: How mortgage time bomb hits homeowners</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/martin-lewis-bank-england-interest-rates-b2362275.html")</f>
+        <v/>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Martin Lewis gives verdict on Bank of England interest rate hike</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197">
+        <f>HYPERLINK("https://www.independent.co.uk/money/what-does-the-bank-of-england-base-rate-hike-mean-for-homeowners-b2362333.html")</f>
+        <v/>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>What does the Bank of England base rate hike mean for homeowners?</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/interest-rates-rise-mortgage-crisis-b2362252.html")</f>
+        <v/>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Bank of England raises interest rates to 5% amid mortgage crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/interest-rates-bank-england-mortgage-inflation-b2362124.html")</f>
+        <v/>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Trigger recession to tame inflation, say economists</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/inflation-mortgage-interest-rates-rise-forecast-uk-economy-latest-b2361535.html")</f>
+        <v/>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Inflation is even worse than you think and it’s bad news for mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/inflation-interest-mortgage-rates-uk-latest-b2361394.html")</f>
+        <v/>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Fears of ‘shock-and-awe’ Bank of England hike as mortgage rates climb</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgages-interest-rates-tories-sunak-hunt-b2361418.html")</f>
+        <v/>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Tories face ‘blue wall’ wipeout from mortgage time bomb</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgages-first-time-buyer-property-b2361173.html")</f>
+        <v/>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>I’m a first-time buyer – is now the right time to buy?</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204">
+        <f>HYPERLINK("https://www.independent.co.uk/news/bank-of-england-ap-london-united-states-office-for-national-statistics-b2361433.html")</f>
+        <v/>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>UK borrowers brace for more expensive loans as inflation fails to fall as anticipated</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/boris-johnson-rishi-sunak-mortgages-furlough-b2360960.html")</f>
+        <v/>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Boris’s clown show is over – Sunak’s election tightrope act teeters on</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgage-interest-rates-bank-gove-sunak-b2360684.html")</f>
+        <v/>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Gove says 25-year fixed rates could ease mortgage crisis</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-rates-house-prices-arrears-b2360336.html")</f>
+        <v/>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>UK ‘hurtling into mortgage disaster’, experts warn</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208">
+        <f>HYPERLINK("https://www.independent.co.uk/independentpremium/voices/mortgages-repossesion-interest-rates-inflation-uk-b2360317.html")</f>
+        <v/>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Katy’s story: how the mortgage crisis is starting to hit home</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/mortgage-interest-rates-calculator-b2360033.html")</f>
+        <v/>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Sunak rules out mortgage support as he urges banks to help homeowners</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210">
+        <f>HYPERLINK("https://www.independent.co.uk/voices/mortgage-furlough-jeremy-hunt-budget-b2358996.html")</f>
+        <v/>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Do Britain’s struggling home owners need a mortgage furlough?</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-payment-rise-next-year-ps2-900-b2358973.html")</f>
+        <v/>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>More mortgage misery as average bills to rise £2,900 next year</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212">
+        <f>HYPERLINK("https://www.independent.co.uk/money/your-money/mortgage-turmoil-deepens-as-santander-pulls-loans-b2356044.html")</f>
+        <v/>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Mortgage woes deepen as bank pulls loans – and rates could rise again</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/brexit-uk-economy-inflation-summers-b2349634.html")</f>
+        <v/>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Brexit was ‘historic economic error’, says ex-US Treasury chief</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214">
+        <f>HYPERLINK("https://www.independent.co.uk/money/mortgage-deals-pulled-interest-rates-b2348227.html")</f>
+        <v/>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Hundreds of mortgage deals pulled from market as lenders raise rates</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/politics/politics-explained/mortgages-interest-rates-election-rishi-sunak-b2346670.html")</f>
+        <v/>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>How rising mortgages could derail Rishi Sunak’s election plans</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/netflix-spotify-mortgage-first-time-buyers-scheme-b2335468.html")</f>
+        <v/>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>How Netflix and Spotify can help first time buyers get a mortgage</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/halifax-mortgage-refused-ukraine-refugees-b2334762.html")</f>
+        <v/>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>Bank apologises after mortgage refused over Ukrainian refugees</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218">
+        <f>HYPERLINK("https://www.independent.co.uk/news/business/interest-rate-mortgages-bank-england-b2337141.html")</f>
+        <v/>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Mortgage pain ahead as Bank raises rate to tackle ‘stubborn’ inflation</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219">
+        <f>HYPERLINK("https://www.independent.co.uk/independentpremium/long-reads/marathon-mortgage-terms-35-40-years-first-time-buyers-b2328018.html")</f>
+        <v/>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Are we entering the age of the marathon mortgage?</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220">
+        <f>HYPERLINK("https://www.independent.co.uk/independentpremium/business/house-prices-uk-housing-nationwide-b2330997.html")</f>
+        <v/>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Pity those seeking to get on the property ladder</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221">
+        <f>HYPERLINK("https://www.independent.co.uk/news/new-zealand-ap-wellington-monetary-policy-committee-australia-b2314371.html")</f>
+        <v/>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>New Zealand's central bank hikes key interest rate to 5.25%</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/bank-england-uk-interest-rates-my-mortgage-b2306882.html")</f>
+        <v/>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>What interest rate rise means for mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223">
+        <f>HYPERLINK("https://www.independent.co.uk/money/house-sales-dip-but-average-fixed-mortgage-rates-hit-a-sixmonth-low-b2304986.html")</f>
+        <v/>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>House sales dip but average fixed mortgage rates hit a six-month low</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/mortgage-rates-calculator-house-price-rise-b2278041.html")</f>
+        <v/>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Mapped: Areas hit hardest by mortgage hikes of up to £13,000 a year</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225">
+        <f>HYPERLINK("https://www.independent.co.uk/news/uk/home-news/house-prices-mortgages-interest-rates-b2274278.html")</f>
+        <v/>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>How interest rate rise will affect house prices and mortgages</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/virgin-media")</f>
+        <v/>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Fibre broadband packages from only £25 at Virgin Media</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/vodafone")</f>
+        <v/>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Extra 15% off extra plans for existing customers at Vodafone</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/audible")</f>
+        <v/>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>50% off your 1st three months with Audible</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/ancestry")</f>
+        <v/>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>50% off selected memberships at Ancestry</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/sixt")</f>
+        <v/>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Up to 15% off your next rental at Sixt</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/nord-vpn")</f>
+        <v/>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Christmas deal: 65% off NordVPN</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232">
+        <f>HYPERLINK("https://www.independent.co.uk/vouchercodes/national-tyres-and-autocare")</f>
+        <v/>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>50% off front or 4-wheel alignment - National Tyres and Autocare promo code</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
